--- a/Data/Delta-delta-metode-RNA-qPCR.xlsx
+++ b/Data/Delta-delta-metode-RNA-qPCR.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uinnlandet-my.sharepoint.com/personal/248300_stud_inn_no/Documents/Kvantitativ metode og statistikk/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uinnlandet-my.sharepoint.com/personal/248300_stud_inn_no/Documents/Kvantitativ metode og statistikk/Regression-models-and-predicting-from-data/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C940CA2D-6B4E-4CCC-A928-3425E907741F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="8_{C940CA2D-6B4E-4CCC-A928-3425E907741F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{41AC6798-5B38-4A79-A127-D3F9A93B167B}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{583B2C0F-C4DC-4656-8959-319B056EB69B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="16">
   <si>
     <t>FP9 L, W0</t>
   </si>
@@ -78,6 +78,12 @@
   </si>
   <si>
     <t>delta ct</t>
+  </si>
+  <si>
+    <t>2-delta delta Ct</t>
+  </si>
+  <si>
+    <t>NA</t>
   </si>
 </sst>
 </file>
@@ -87,7 +93,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -100,6 +106,15 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -119,16 +134,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{0C51DB5B-6497-4077-B9E0-173459688B50}"/>
+    <cellStyle name="Prosent 2" xfId="2" xr:uid="{5FDBC863-0B83-491F-A7E0-01DA7900E36E}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -440,10 +461,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{742B2DF5-4280-4C78-AF49-7356A32F049E}">
-  <dimension ref="A1:L21"/>
+  <dimension ref="A1:M21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -451,9 +472,10 @@
     <col min="1" max="1" width="12.85546875" customWidth="1"/>
     <col min="2" max="3" width="13" customWidth="1"/>
     <col min="7" max="7" width="15.7109375" customWidth="1"/>
+    <col min="13" max="13" width="19.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -490,8 +512,11 @@
       <c r="L1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M1" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -528,8 +553,11 @@
       <c r="L2" s="1">
         <v>-5.0605106353759766</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M2" s="4">
+        <v>33.372481869731828</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -551,8 +579,8 @@
       <c r="G3" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="1">
-        <v>22.874013900756836</v>
+      <c r="H3" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="I3" s="1">
         <v>22.292404174804688</v>
@@ -566,8 +594,11 @@
       <c r="L3" s="1">
         <v>-4.3510573705037423</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M3" s="4">
+        <v>20.410031873448315</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -604,8 +635,11 @@
       <c r="L4" s="1">
         <v>-5.0219090779622384</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M4" s="4">
+        <v>32.489667587962742</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -627,8 +661,8 @@
       <c r="G5" t="s">
         <v>1</v>
       </c>
-      <c r="H5" s="1">
-        <v>22.874013900756836</v>
+      <c r="H5" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="I5" s="1">
         <v>22.292404174804688</v>
@@ -642,8 +676,11 @@
       <c r="L5" s="1">
         <v>-3.4620033899943046</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M5" s="4">
+        <v>11.019626264566726</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -680,8 +717,11 @@
       <c r="L6" s="1">
         <v>-2.159568150838215</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M6" s="4">
+        <v>4.4678109797788803</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -703,8 +743,8 @@
       <c r="G7" t="s">
         <v>1</v>
       </c>
-      <c r="H7" s="1">
-        <v>22.874013900756836</v>
+      <c r="H7" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="I7" s="1">
         <v>22.292404174804688</v>
@@ -718,8 +758,11 @@
       <c r="L7" s="1">
         <v>0.16214911142985144</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M7" s="4">
+        <v>0.89369278892187809</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -729,7 +772,7 @@
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
@@ -740,7 +783,7 @@
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
@@ -750,10 +793,10 @@
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="J15" s="1"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C16" s="1"/>
       <c r="J16" s="1"/>
     </row>

--- a/Data/Delta-delta-metode-RNA-qPCR.xlsx
+++ b/Data/Delta-delta-metode-RNA-qPCR.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uinnlandet-my.sharepoint.com/personal/248300_stud_inn_no/Documents/Kvantitativ metode og statistikk/Regression-models-and-predicting-from-data/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="8_{C940CA2D-6B4E-4CCC-A928-3425E907741F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{41AC6798-5B38-4A79-A127-D3F9A93B167B}"/>
+  <xr:revisionPtr revIDLastSave="21" documentId="8_{C940CA2D-6B4E-4CCC-A928-3425E907741F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C3D14257-B799-45D1-AF50-DA750899C4DA}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{583B2C0F-C4DC-4656-8959-319B056EB69B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="20">
   <si>
     <t>FP9 L, W0</t>
   </si>
@@ -56,34 +56,46 @@
     <t>Mhc2x</t>
   </si>
   <si>
-    <t>Sample name</t>
-  </si>
-  <si>
-    <t>Target name</t>
-  </si>
-  <si>
-    <t>ct1</t>
-  </si>
-  <si>
-    <t>ct2</t>
-  </si>
-  <si>
-    <t>ct3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Average </t>
-  </si>
-  <si>
-    <t>Reference gene</t>
-  </si>
-  <si>
-    <t>delta ct</t>
-  </si>
-  <si>
-    <t>2-delta delta Ct</t>
-  </si>
-  <si>
     <t>NA</t>
+  </si>
+  <si>
+    <t>ct1_target_gene</t>
+  </si>
+  <si>
+    <t>ct2_target_gene</t>
+  </si>
+  <si>
+    <t>ct3_target_gene</t>
+  </si>
+  <si>
+    <t>Avg_target_gene</t>
+  </si>
+  <si>
+    <t>ct1_ref_gene</t>
+  </si>
+  <si>
+    <t>ct2_ref_gene</t>
+  </si>
+  <si>
+    <t>ct3_ref_gene</t>
+  </si>
+  <si>
+    <t>Avg_ref_gene</t>
+  </si>
+  <si>
+    <t>delta_ct</t>
+  </si>
+  <si>
+    <t>target_name</t>
+  </si>
+  <si>
+    <t>sample_name</t>
+  </si>
+  <si>
+    <t>Reference_gene</t>
+  </si>
+  <si>
+    <t>2-delta_delta_ct</t>
   </si>
 </sst>
 </file>
@@ -464,7 +476,7 @@
   <dimension ref="A1:M21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -477,43 +489,43 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="B1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" t="s">
         <v>7</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>8</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>9</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>10</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" t="s">
         <v>11</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>12</v>
       </c>
-      <c r="H1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" t="s">
-        <v>9</v>
-      </c>
       <c r="J1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="K1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="L1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -580,7 +592,7 @@
         <v>1</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="I3" s="1">
         <v>22.292404174804688</v>
@@ -662,7 +674,7 @@
         <v>1</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="I5" s="1">
         <v>22.292404174804688</v>
@@ -744,7 +756,7 @@
         <v>1</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="I7" s="1">
         <v>22.292404174804688</v>
